--- a/medicine/Mort/Cimetière_de_Sleepy_Hollow/Cimetière_de_Sleepy_Hollow.xlsx
+++ b/medicine/Mort/Cimetière_de_Sleepy_Hollow/Cimetière_de_Sleepy_Hollow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Sleepy_Hollow</t>
+          <t>Cimetière_de_Sleepy_Hollow</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Sleepy Hollow est situé sur Bedford Street près du centre de Concord, dans le Massachusetts. Le cimetière est un lieu où de nombreux habitants célèbres sont enterrés, notamment certains auteurs et penseurs importants des États-Unis sur la colline dénommée « Author's Ridge ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Sleepy_Hollow</t>
+          <t>Cimetière_de_Sleepy_Hollow</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Tombes de personnes célèbres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Amos Bronson Alcott, transcendentaliste, philosophe
 Louisa May Alcott, auteur de Les Quatre Filles du docteur March
